--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,77 +443,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
@@ -527,259 +527,259 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,259 +443,259 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -709,84 +709,84 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>O</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,350 +443,350 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>J</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,14 +443,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -464,329 +464,329 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>L</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,70 +443,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -520,28 +520,28 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -555,119 +555,119 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -681,112 +681,112 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>A</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,350 +443,350 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>7</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,350 +443,350 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>O</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,98 +443,98 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Z</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -548,245 +548,245 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>P</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,63 +443,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -527,21 +527,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -555,35 +555,35 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -597,196 +597,196 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>I</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,91 +443,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -541,224 +541,224 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -772,21 +772,21 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,35 +443,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>L</t>
         </is>
       </c>
     </row>
@@ -485,35 +485,35 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -541,196 +541,196 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -758,35 +758,35 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,350 +443,350 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>I</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,308 +443,308 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -758,21 +758,21 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,49 +443,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -499,35 +499,35 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -541,35 +541,35 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>L</t>
         </is>
       </c>
     </row>
@@ -583,91 +583,91 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -681,42 +681,42 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -730,63 +730,63 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>J</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,63 +443,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -513,98 +513,98 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>L</t>
         </is>
       </c>
     </row>
@@ -618,175 +618,175 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>A</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,140 +443,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -590,203 +590,203 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,119 +443,119 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -569,105 +569,105 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -681,112 +681,112 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,21 +443,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -471,322 +471,322 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>P</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,350 +443,350 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,301 +443,301 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -751,42 +751,42 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,350 +443,350 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>D</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,322 +443,322 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
     </row>
@@ -772,14 +772,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>I</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,196 +443,196 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -646,98 +646,98 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -751,42 +751,42 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -450,70 +450,70 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -527,56 +527,56 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -590,140 +590,140 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -737,56 +737,56 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,49 +443,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -499,28 +499,28 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -534,259 +534,259 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,203 +443,203 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -653,70 +653,70 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -730,63 +730,63 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>T</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,84 +443,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -534,42 +534,42 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -583,210 +583,210 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,210 +443,210 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -660,133 +660,133 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,105 +443,105 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>G</t>
         </is>
       </c>
     </row>
@@ -555,42 +555,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -604,77 +604,77 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -688,56 +688,56 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -751,42 +751,42 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,350 +443,350 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,133 +443,133 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -583,133 +583,133 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -723,70 +723,70 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,203 +443,203 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -653,49 +653,49 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -709,70 +709,70 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,14 +443,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -471,56 +471,56 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -534,119 +534,119 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -660,63 +660,63 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -730,63 +730,63 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,161 +443,161 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>I</t>
         </is>
       </c>
     </row>
@@ -611,42 +611,42 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -660,133 +660,133 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,350 +443,350 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,140 +443,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -590,91 +590,91 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -688,105 +688,105 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,70 +443,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -520,91 +520,91 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -618,77 +618,77 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -702,91 +702,91 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>D</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,56 +443,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>U</t>
         </is>
       </c>
     </row>
@@ -506,28 +506,28 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -541,56 +541,56 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -604,154 +604,154 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -765,28 +765,28 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>U</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,140 +443,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -590,28 +590,28 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -625,168 +625,168 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/front/random_data_front.xlsx
+++ b/imageCreationExcel/front/random_data_front.xlsx
@@ -443,77 +443,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>R</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>J</t>
         </is>
       </c>
     </row>
@@ -541,252 +541,252 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
     </row>
